--- a/2007/arson-2007.xlsx
+++ b/2007/arson-2007.xlsx
@@ -4,11 +4,12 @@
   <workbookPr/>
   <sheets>
     <sheet sheetId="1" name="classification-by-location" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="classification-by-value-loss-of" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="point-of-entry-exit" state="visible" r:id="rId5"/>
-    <sheet sheetId="4" name="victim-of-arson-by-gender-and-r" state="visible" r:id="rId6"/>
-    <sheet sheetId="5" name="offenders-of-arson-by-gender-an" state="visible" r:id="rId7"/>
-    <sheet sheetId="6" name="arson-by-day-of-week-and-time-o" state="visible" r:id="rId8"/>
+    <sheet sheetId="2" name="monthly-time-chart" state="visible" r:id="rId4"/>
+    <sheet sheetId="3" name="classification-by-value-loss-of" state="visible" r:id="rId5"/>
+    <sheet sheetId="4" name="point-of-entry-exit" state="visible" r:id="rId6"/>
+    <sheet sheetId="5" name="victim-of-arson-by-gender-and-r" state="visible" r:id="rId7"/>
+    <sheet sheetId="6" name="offenders-of-arson-by-gender-an" state="visible" r:id="rId8"/>
+    <sheet sheetId="7" name="arson-by-day-of-week-and-time-o" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -97,6 +98,48 @@
   </si>
   <si>
     <t>Other/Unknown</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Number of Arsons</t>
   </si>
   <si>
     <t>Structure</t>
@@ -442,6 +485,9 @@
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment/>
     </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment/>
+    </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="164" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1">
       <alignment/>
     </xf>
@@ -449,9 +495,6 @@
       <alignment/>
     </xf>
     <xf fillId="0" xfId="0" numFmtId="164" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1"/>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -485,6 +528,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -719,290 +766,102 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="37.0"/>
+    <col min="1" customWidth="1" max="1" width="18.43"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="1" r="A1">
+      <c t="s" s="3" r="A1">
         <v>27</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c t="s" s="3" r="B1">
         <v>28</v>
       </c>
+      <c t="s" s="3" r="C1">
+        <v>29</v>
+      </c>
+      <c t="s" s="3" r="D1">
+        <v>30</v>
+      </c>
+      <c t="s" s="3" r="E1">
+        <v>31</v>
+      </c>
+      <c t="s" s="3" r="F1">
+        <v>32</v>
+      </c>
+      <c t="s" s="3" r="G1">
+        <v>33</v>
+      </c>
+      <c t="s" s="3" r="H1">
+        <v>34</v>
+      </c>
+      <c t="s" s="3" r="I1">
+        <v>35</v>
+      </c>
+      <c t="s" s="3" r="J1">
+        <v>36</v>
+      </c>
+      <c t="s" s="3" r="K1">
+        <v>37</v>
+      </c>
+      <c t="s" s="3" r="L1">
+        <v>38</v>
+      </c>
+      <c t="s" s="3" r="M1">
+        <v>39</v>
+      </c>
+      <c s="3" r="N1"/>
+      <c s="3" r="O1"/>
+      <c s="3" r="P1"/>
+      <c s="3" r="Q1"/>
+      <c s="3" r="R1"/>
+      <c s="3" r="S1"/>
+      <c s="3" r="T1"/>
+      <c s="3" r="U1"/>
+      <c s="3" r="V1"/>
+      <c s="3" r="W1"/>
+      <c s="3" r="X1"/>
+      <c s="3" r="Y1"/>
+      <c s="3" r="Z1"/>
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>29</v>
-      </c>
-      <c s="3" r="B2">
-        <v>7477273.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="1" r="A3">
-        <v>30</v>
-      </c>
-      <c s="3" r="B3">
-        <v>2898032.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="1" r="A4">
-        <v>31</v>
-      </c>
-      <c s="3" r="B4">
-        <v>2221428.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="1" r="A5">
-        <v>32</v>
-      </c>
-      <c s="3" r="B5">
-        <v>30400.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="1" r="A6">
-        <v>33</v>
-      </c>
-      <c s="3" r="B6">
-        <v>326678.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="1" r="A7">
-        <v>34</v>
-      </c>
-      <c s="3" r="B7">
-        <v>398143.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="1" r="A8">
-        <v>35</v>
-      </c>
-      <c s="3" r="B8">
-        <v>758364.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" s="1" r="A9">
-        <v>36</v>
-      </c>
-      <c s="1" r="B9"/>
-    </row>
-    <row r="10">
-      <c t="s" s="1" r="A10">
-        <v>37</v>
-      </c>
-      <c s="3" r="B10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c t="s" s="1" r="A11">
-        <v>38</v>
-      </c>
-      <c s="3" r="B11">
-        <v>1208362.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c t="s" s="1" r="A12">
-        <v>39</v>
-      </c>
-      <c s="3" r="B12">
-        <v>151.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c t="s" s="1" r="A13">
         <v>40</v>
       </c>
-      <c s="3" r="B13">
-        <v>31200.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c t="s" s="1" r="A14">
-        <v>41</v>
-      </c>
-      <c s="3" r="B14">
-        <v>4644.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c t="s" s="1" r="A15">
-        <v>42</v>
-      </c>
-      <c s="3" r="B15">
-        <v>1080.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c t="s" s="1" r="A16">
-        <v>43</v>
-      </c>
-      <c s="3" r="B16">
-        <v>8195.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c t="s" s="1" r="A17">
-        <v>44</v>
-      </c>
-      <c s="3" r="B17">
-        <v>92525.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c t="s" s="1" r="A18">
-        <v>45</v>
-      </c>
-      <c s="3" r="B18">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c t="s" s="1" r="A19">
-        <v>46</v>
-      </c>
-      <c s="3" r="B19">
-        <v>206021.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c t="s" s="1" r="A20">
-        <v>47</v>
-      </c>
-      <c s="3" r="B20">
-        <v>58219.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c t="s" s="1" r="A21">
-        <v>48</v>
-      </c>
-      <c s="3" r="B21"/>
-    </row>
-    <row r="22">
-      <c t="s" s="1" r="A22">
-        <v>49</v>
-      </c>
-      <c s="3" r="B22">
-        <v>182997.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c t="s" s="1" r="A23">
-        <v>50</v>
-      </c>
-      <c s="3" r="B23">
-        <v>37000.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c t="s" s="1" r="A24">
-        <v>51</v>
-      </c>
-      <c s="3" r="B24">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c t="s" s="1" r="A25">
-        <v>52</v>
-      </c>
-      <c s="3" r="B25">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c t="s" s="1" r="A26">
-        <v>53</v>
-      </c>
-      <c s="3" r="B26">
-        <v>122201.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c t="s" s="1" r="A27">
-        <v>54</v>
-      </c>
-      <c s="3" r="B27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c t="s" s="1" r="A28">
-        <v>55</v>
-      </c>
-      <c s="3" r="B28">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c t="s" s="1" r="A29">
-        <v>56</v>
-      </c>
-      <c s="3" r="B29"/>
-    </row>
-    <row r="30">
-      <c t="s" s="1" r="A30">
-        <v>57</v>
-      </c>
-      <c s="3" r="B30">
-        <v>50401.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c t="s" s="1" r="A31">
-        <v>58</v>
-      </c>
-      <c s="3" r="B31">
-        <v>16596.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c t="s" s="1" r="A32">
-        <v>59</v>
-      </c>
-      <c s="3" r="B32">
-        <v>367420.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c t="s" s="1" r="A33">
-        <v>60</v>
-      </c>
-      <c s="3" r="B33">
-        <v>163700.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c t="s" s="1" r="A34">
-        <v>61</v>
-      </c>
-      <c s="3" r="B34">
-        <v>10100.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c t="s" s="1" r="A35">
-        <v>62</v>
-      </c>
-      <c s="4" r="B35">
-        <v>851068.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c t="s" s="1" r="A36">
-        <v>63</v>
-      </c>
-      <c t="str" s="5" r="B36">
-        <f>sum(B2:B35)</f>
-        <v>17,523,698</v>
+      <c s="1" r="B2">
+        <v>139.0</v>
+      </c>
+      <c s="1" r="C2">
+        <v>117.0</v>
+      </c>
+      <c s="1" r="D2">
+        <v>166.0</v>
+      </c>
+      <c s="1" r="E2">
+        <v>143.0</v>
+      </c>
+      <c s="1" r="F2">
+        <v>134.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>141.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>155.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>128.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>141.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>141.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>117.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>139.0</v>
       </c>
     </row>
   </sheetData>
@@ -1017,179 +876,293 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="32.43"/>
+    <col min="1" customWidth="1" max="1" width="37.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="6" r="A1">
-        <v>64</v>
+      <c t="s" s="1" r="A1">
+        <v>41</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>65</v>
-      </c>
-      <c t="s" s="1" r="C1">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
-      <c t="s" s="2" r="A2">
-        <v>67</v>
-      </c>
-      <c s="1" r="B2">
-        <v>18.0</v>
-      </c>
-      <c s="1" r="C2">
-        <v>16.0</v>
+      <c t="s" s="1" r="A2">
+        <v>43</v>
+      </c>
+      <c s="4" r="B2">
+        <v>7477273.0</v>
       </c>
     </row>
     <row r="3">
-      <c t="s" s="2" r="A3">
-        <v>68</v>
-      </c>
-      <c s="1" r="B3">
-        <v>8.0</v>
-      </c>
-      <c s="1" r="C3">
-        <v>7.0</v>
+      <c t="s" s="1" r="A3">
+        <v>44</v>
+      </c>
+      <c s="4" r="B3">
+        <v>2898032.0</v>
       </c>
     </row>
     <row r="4">
-      <c t="s" s="2" r="A4">
-        <v>69</v>
-      </c>
-      <c s="1" r="B4">
-        <v>10.0</v>
-      </c>
-      <c s="1" r="C4">
-        <v>6.0</v>
+      <c t="s" s="1" r="A4">
+        <v>45</v>
+      </c>
+      <c s="4" r="B4">
+        <v>2221428.0</v>
       </c>
     </row>
     <row r="5">
-      <c t="s" s="2" r="A5">
-        <v>70</v>
+      <c t="s" s="1" r="A5">
+        <v>46</v>
+      </c>
+      <c s="4" r="B5">
+        <v>30400.0</v>
       </c>
     </row>
     <row r="6">
-      <c t="s" s="2" r="A6">
-        <v>71</v>
-      </c>
-      <c s="1" r="B6"/>
+      <c t="s" s="1" r="A6">
+        <v>47</v>
+      </c>
+      <c s="4" r="B6">
+        <v>326678.0</v>
+      </c>
     </row>
     <row r="7">
-      <c t="s" s="2" r="A7">
-        <v>72</v>
-      </c>
-      <c s="1" r="B7">
-        <v>4.0</v>
-      </c>
-      <c s="1" r="C7"/>
+      <c t="s" s="1" r="A7">
+        <v>48</v>
+      </c>
+      <c s="4" r="B7">
+        <v>398143.0</v>
+      </c>
     </row>
     <row r="8">
-      <c t="s" s="2" r="A8">
-        <v>73</v>
-      </c>
-      <c s="1" r="B8">
-        <v>36.0</v>
-      </c>
-      <c s="1" r="C8">
-        <v>27.0</v>
+      <c t="s" s="1" r="A8">
+        <v>49</v>
+      </c>
+      <c s="4" r="B8">
+        <v>758364.0</v>
       </c>
     </row>
     <row r="9">
-      <c t="s" s="2" r="A9">
-        <v>74</v>
-      </c>
-      <c s="1" r="B9">
-        <v>2.0</v>
-      </c>
-      <c s="1" r="C9">
-        <v>1.0</v>
-      </c>
+      <c t="s" s="1" r="A9">
+        <v>50</v>
+      </c>
+      <c s="1" r="B9"/>
     </row>
     <row r="10">
-      <c t="s" s="2" r="A10">
-        <v>75</v>
-      </c>
-      <c s="1" r="B10">
-        <v>1.0</v>
-      </c>
-      <c s="1" r="C10"/>
+      <c t="s" s="1" r="A10">
+        <v>51</v>
+      </c>
+      <c s="4" r="B10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
-      <c t="s" s="2" r="A11">
-        <v>76</v>
-      </c>
-      <c s="1" r="B11">
-        <v>2.0</v>
-      </c>
-      <c s="1" r="C11">
-        <v>1.0</v>
+      <c t="s" s="1" r="A11">
+        <v>52</v>
+      </c>
+      <c s="4" r="B11">
+        <v>1208362.0</v>
       </c>
     </row>
     <row r="12">
-      <c t="s" s="2" r="A12">
-        <v>77</v>
-      </c>
-      <c s="1" r="B12"/>
-      <c s="1" r="C12"/>
+      <c t="s" s="1" r="A12">
+        <v>53</v>
+      </c>
+      <c s="4" r="B12">
+        <v>151.0</v>
+      </c>
     </row>
     <row r="13">
-      <c t="s" s="2" r="A13">
-        <v>78</v>
-      </c>
-      <c s="1" r="B13">
-        <v>2.0</v>
-      </c>
-      <c s="1" r="C13"/>
+      <c t="s" s="1" r="A13">
+        <v>54</v>
+      </c>
+      <c s="4" r="B13">
+        <v>31200.0</v>
+      </c>
     </row>
     <row r="14">
-      <c t="s" s="2" r="A14">
-        <v>79</v>
-      </c>
-      <c s="1" r="B14"/>
+      <c t="s" s="1" r="A14">
+        <v>55</v>
+      </c>
+      <c s="4" r="B14">
+        <v>4644.0</v>
+      </c>
     </row>
     <row r="15">
-      <c t="s" s="2" r="A15">
-        <v>80</v>
-      </c>
-      <c s="1" r="B15"/>
+      <c t="s" s="1" r="A15">
+        <v>56</v>
+      </c>
+      <c s="4" r="B15">
+        <v>1080.0</v>
+      </c>
     </row>
     <row r="16">
-      <c t="s" s="2" r="A16">
-        <v>81</v>
+      <c t="s" s="1" r="A16">
+        <v>57</v>
+      </c>
+      <c s="4" r="B16">
+        <v>8195.0</v>
       </c>
     </row>
     <row r="17">
-      <c t="s" s="2" r="A17">
-        <v>82</v>
-      </c>
-      <c s="1" r="B17">
-        <v>8.0</v>
-      </c>
-      <c s="1" r="C17">
-        <v>7.0</v>
+      <c t="s" s="1" r="A17">
+        <v>58</v>
+      </c>
+      <c s="4" r="B17">
+        <v>92525.0</v>
       </c>
     </row>
     <row r="18">
-      <c t="s" s="2" r="A18">
-        <v>83</v>
-      </c>
-      <c s="1" r="B18">
-        <v>1571.0</v>
-      </c>
-      <c s="1" r="C18">
-        <v>1595.0</v>
+      <c t="s" s="1" r="A18">
+        <v>59</v>
+      </c>
+      <c s="4" r="B18">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="19">
       <c t="s" s="1" r="A19">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c s="4" r="B19">
+        <v>206021.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c t="s" s="1" r="A20">
+        <v>61</v>
+      </c>
+      <c s="4" r="B20">
+        <v>58219.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c t="s" s="1" r="A21">
+        <v>62</v>
+      </c>
+      <c s="4" r="B21"/>
+    </row>
+    <row r="22">
+      <c t="s" s="1" r="A22">
+        <v>63</v>
+      </c>
+      <c s="4" r="B22">
+        <v>182997.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c t="s" s="1" r="A23">
+        <v>64</v>
+      </c>
+      <c s="4" r="B23">
+        <v>37000.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c t="s" s="1" r="A24">
+        <v>65</v>
+      </c>
+      <c s="4" r="B24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c t="s" s="1" r="A25">
+        <v>66</v>
+      </c>
+      <c s="4" r="B25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c t="s" s="1" r="A26">
+        <v>67</v>
+      </c>
+      <c s="4" r="B26">
+        <v>122201.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c t="s" s="1" r="A27">
+        <v>68</v>
+      </c>
+      <c s="4" r="B27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c t="s" s="1" r="A28">
+        <v>69</v>
+      </c>
+      <c s="4" r="B28">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c t="s" s="1" r="A29">
+        <v>70</v>
+      </c>
+      <c s="4" r="B29"/>
+    </row>
+    <row r="30">
+      <c t="s" s="1" r="A30">
+        <v>71</v>
+      </c>
+      <c s="4" r="B30">
+        <v>50401.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c t="s" s="1" r="A31">
+        <v>72</v>
+      </c>
+      <c s="4" r="B31">
+        <v>16596.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c t="s" s="1" r="A32">
+        <v>73</v>
+      </c>
+      <c s="4" r="B32">
+        <v>367420.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c t="s" s="1" r="A33">
+        <v>74</v>
+      </c>
+      <c s="4" r="B33">
+        <v>163700.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c t="s" s="1" r="A34">
+        <v>75</v>
+      </c>
+      <c s="4" r="B34">
+        <v>10100.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c t="s" s="1" r="A35">
+        <v>76</v>
+      </c>
+      <c s="5" r="B35">
+        <v>851068.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c t="s" s="1" r="A36">
+        <v>77</v>
+      </c>
+      <c t="str" s="6" r="B36">
+        <f>sum(B2:B35)</f>
+        <v>17,523,698</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A19:C19"/>
-  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1201,95 +1174,178 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="29.29"/>
+    <col min="1" customWidth="1" max="1" width="32.43"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="1" r="A1">
+      <c t="s" s="3" r="A1">
+        <v>78</v>
+      </c>
+      <c t="s" s="1" r="B1">
+        <v>79</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2">
+      <c t="s" s="2" r="A2">
+        <v>81</v>
+      </c>
+      <c s="1" r="B2">
+        <v>18.0</v>
+      </c>
+      <c s="1" r="C2">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" s="2" r="A3">
+        <v>82</v>
+      </c>
+      <c s="1" r="B3">
+        <v>8.0</v>
+      </c>
+      <c s="1" r="C3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="2" r="A4">
+        <v>83</v>
+      </c>
+      <c s="1" r="B4">
+        <v>10.0</v>
+      </c>
+      <c s="1" r="C4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="2" r="A5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="2" r="A6">
         <v>85</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c s="1" r="B6"/>
+    </row>
+    <row r="7">
+      <c t="s" s="2" r="A7">
         <v>86</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c s="1" r="B7">
+        <v>4.0</v>
+      </c>
+      <c s="1" r="C7"/>
+    </row>
+    <row r="8">
+      <c t="s" s="2" r="A8">
         <v>87</v>
       </c>
-    </row>
-    <row r="2">
-      <c t="s" s="1" r="A2">
+      <c s="1" r="B8">
+        <v>36.0</v>
+      </c>
+      <c s="1" r="C8">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" s="2" r="A9">
         <v>88</v>
       </c>
-      <c s="1" r="B2">
-        <v>454.0</v>
-      </c>
-      <c s="1" r="C2">
-        <v>292.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="1" r="A3">
+      <c s="1" r="B9">
+        <v>2.0</v>
+      </c>
+      <c s="1" r="C9">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" s="2" r="A10">
         <v>89</v>
       </c>
-      <c s="1" r="B3">
-        <v>113.0</v>
-      </c>
-      <c s="1" r="C3">
-        <v>144.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="1" r="A4">
+      <c s="1" r="B10">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="C10"/>
+    </row>
+    <row r="11">
+      <c t="s" s="2" r="A11">
         <v>90</v>
       </c>
-      <c s="1" r="B4">
+      <c s="1" r="B11">
+        <v>2.0</v>
+      </c>
+      <c s="1" r="C11">
         <v>1.0</v>
       </c>
-      <c s="1" r="C4">
+    </row>
+    <row r="12">
+      <c t="s" s="2" r="A12">
+        <v>91</v>
+      </c>
+      <c s="1" r="B12"/>
+      <c s="1" r="C12"/>
+    </row>
+    <row r="13">
+      <c t="s" s="2" r="A13">
+        <v>92</v>
+      </c>
+      <c s="1" r="B13">
         <v>2.0</v>
       </c>
-    </row>
-    <row r="5">
-      <c t="s" s="1" r="A5">
-        <v>91</v>
-      </c>
-      <c s="1" r="B5">
-        <v>9.0</v>
-      </c>
-      <c s="1" r="C5">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="1" r="A6">
-        <v>92</v>
-      </c>
-      <c s="1" r="B6">
-        <v>35.0</v>
-      </c>
-      <c s="1" r="C6">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c s="1" r="B7"/>
-      <c s="1" r="C7"/>
-    </row>
-    <row r="8">
-      <c t="s" s="1" r="A8">
+      <c s="1" r="C13"/>
+    </row>
+    <row r="14">
+      <c t="s" s="2" r="A14">
         <v>93</v>
       </c>
-      <c t="str" s="1" r="B8">
-        <f ref="B8:C8" t="shared" si="1">sum(B2:B6)</f>
-        <v>612</v>
-      </c>
-      <c t="str" s="1" r="C8">
-        <f t="shared" si="1"/>
-        <v>473</v>
+      <c s="1" r="B14"/>
+    </row>
+    <row r="15">
+      <c t="s" s="2" r="A15">
+        <v>94</v>
+      </c>
+      <c s="1" r="B15"/>
+    </row>
+    <row r="16">
+      <c t="s" s="2" r="A16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17">
+      <c t="s" s="2" r="A17">
+        <v>96</v>
+      </c>
+      <c s="1" r="B17">
+        <v>8.0</v>
+      </c>
+      <c s="1" r="C17">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c t="s" s="2" r="A18">
+        <v>97</v>
+      </c>
+      <c s="1" r="B18">
+        <v>1571.0</v>
+      </c>
+      <c s="1" r="C18">
+        <v>1595.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c t="s" s="1" r="A19">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1302,73 +1358,73 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="28.71"/>
+    <col min="1" customWidth="1" max="1" width="29.29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c t="s" s="1" r="C1">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c s="1" r="B2">
-        <v>646.0</v>
+        <v>454.0</v>
       </c>
       <c s="1" r="C2">
-        <v>105.0</v>
+        <v>292.0</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="1" r="A3">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c s="1" r="B3">
-        <v>263.0</v>
+        <v>113.0</v>
       </c>
       <c s="1" r="C3">
-        <v>56.0</v>
+        <v>144.0</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c s="1" r="B4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="C4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c t="s" s="1" r="A5">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c s="1" r="B5">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="C5">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="6">
       <c t="s" s="1" r="A6">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c s="1" r="B6">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c s="1" r="C6">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
@@ -1377,15 +1433,15 @@
     </row>
     <row r="8">
       <c t="s" s="1" r="A8">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c t="str" s="1" r="B8">
         <f ref="B8:C8" t="shared" si="1">sum(B2:B6)</f>
-        <v>959</v>
+        <v>612</v>
       </c>
       <c t="str" s="1" r="C8">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -1402,54 +1458,155 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" customWidth="1" max="1" width="28.71"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="6" r="A1">
-        <v>103</v>
-      </c>
-      <c t="s" s="6" r="B1">
-        <v>104</v>
-      </c>
-      <c t="s" s="6" r="C1">
-        <v>105</v>
-      </c>
-      <c t="s" s="6" r="D1">
-        <v>106</v>
-      </c>
-      <c t="s" s="6" r="E1">
-        <v>107</v>
-      </c>
-      <c t="s" s="6" r="F1">
+      <c t="s" s="1" r="A1">
         <v>108</v>
       </c>
-      <c t="s" s="6" r="G1">
+      <c t="s" s="1" r="B1">
         <v>109</v>
       </c>
-      <c t="s" s="6" r="H1">
+      <c t="s" s="1" r="C1">
         <v>110</v>
-      </c>
-      <c t="s" s="6" r="I1">
-        <v>111</v>
-      </c>
-      <c t="s" s="6" r="J1">
-        <v>112</v>
-      </c>
-      <c t="s" s="6" r="K1">
-        <v>113</v>
-      </c>
-      <c t="s" s="6" r="L1">
-        <v>114</v>
-      </c>
-      <c t="s" s="6" r="M1">
-        <v>115</v>
-      </c>
-      <c t="s" s="6" r="N1">
-        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
+        <v>111</v>
+      </c>
+      <c s="1" r="B2">
+        <v>646.0</v>
+      </c>
+      <c s="1" r="C2">
+        <v>105.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" s="1" r="A3">
+        <v>112</v>
+      </c>
+      <c s="1" r="B3">
+        <v>263.0</v>
+      </c>
+      <c s="1" r="C3">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="1" r="A4">
+        <v>113</v>
+      </c>
+      <c s="1" r="B4">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="C4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="1" r="A5">
+        <v>114</v>
+      </c>
+      <c s="1" r="B5">
+        <v>20.0</v>
+      </c>
+      <c s="1" r="C5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="1" r="A6">
+        <v>115</v>
+      </c>
+      <c s="1" r="B6">
+        <v>30.0</v>
+      </c>
+      <c s="1" r="C6">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c s="1" r="B7"/>
+      <c s="1" r="C7"/>
+    </row>
+    <row r="8">
+      <c t="s" s="1" r="A8">
+        <v>116</v>
+      </c>
+      <c t="str" s="1" r="B8">
+        <f ref="B8:C8" t="shared" si="1">sum(B2:B6)</f>
+        <v>959</v>
+      </c>
+      <c t="str" s="1" r="C8">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="3" r="A1">
         <v>117</v>
+      </c>
+      <c t="s" s="3" r="B1">
+        <v>118</v>
+      </c>
+      <c t="s" s="3" r="C1">
+        <v>119</v>
+      </c>
+      <c t="s" s="3" r="D1">
+        <v>120</v>
+      </c>
+      <c t="s" s="3" r="E1">
+        <v>121</v>
+      </c>
+      <c t="s" s="3" r="F1">
+        <v>122</v>
+      </c>
+      <c t="s" s="3" r="G1">
+        <v>123</v>
+      </c>
+      <c t="s" s="3" r="H1">
+        <v>124</v>
+      </c>
+      <c t="s" s="3" r="I1">
+        <v>125</v>
+      </c>
+      <c t="s" s="3" r="J1">
+        <v>126</v>
+      </c>
+      <c t="s" s="3" r="K1">
+        <v>127</v>
+      </c>
+      <c t="s" s="3" r="L1">
+        <v>128</v>
+      </c>
+      <c t="s" s="3" r="M1">
+        <v>129</v>
+      </c>
+      <c t="s" s="3" r="N1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2">
+      <c t="s" s="1" r="A2">
+        <v>131</v>
       </c>
       <c s="1" r="B2">
         <v>29.0</v>
@@ -1493,7 +1650,7 @@
     </row>
     <row r="3">
       <c t="s" s="1" r="A3">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c s="1" r="B3">
         <v>30.0</v>
@@ -1537,7 +1694,7 @@
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c s="1" r="B4">
         <v>30.0</v>
@@ -1581,7 +1738,7 @@
     </row>
     <row r="5">
       <c t="s" s="1" r="A5">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c s="1" r="B5">
         <v>20.0</v>
@@ -1625,7 +1782,7 @@
     </row>
     <row r="6">
       <c t="s" s="1" r="A6">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c s="1" r="B6">
         <v>19.0</v>
@@ -1669,7 +1826,7 @@
     </row>
     <row r="7">
       <c t="s" s="1" r="A7">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c s="1" r="B7">
         <v>28.0</v>
@@ -1713,7 +1870,7 @@
     </row>
     <row r="8">
       <c t="s" s="1" r="A8">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c s="1" r="B8">
         <v>26.0</v>
@@ -1757,7 +1914,7 @@
     </row>
     <row r="9">
       <c t="s" s="1" r="A9">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c t="str" s="1" r="B9">
         <f ref="B9:N9" t="shared" si="1">sum(B2:B8)</f>
